--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_265__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_265__Reeval_Halton_Modell_1.1.xlsx
@@ -5987,82 +5987,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>61.83291244506836</c:v>
+                  <c:v>61.83291625976562</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>53.08198928833008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.18092346191406</c:v>
+                  <c:v>42.18091583251953</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>54.03136444091797</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>50.3905029296875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>37.48466873168945</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.47079849243164</c:v>
+                  <c:v>42.47079467773438</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.96453857421875</c:v>
+                  <c:v>-2.964543581008911</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-61.83600997924805</c:v>
+                  <c:v>-61.83602142333984</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>51.98949813842773</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.81402206420898</c:v>
+                  <c:v>43.81401824951172</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45.12631607055664</c:v>
+                  <c:v>45.12630462646484</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42.89959335327148</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>71.43074798583984</c:v>
+                  <c:v>71.43074035644531</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.912672996521</c:v>
+                  <c:v>12.91267395019531</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-3.184816360473633</c:v>
+                  <c:v>-3.184815883636475</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45.07634353637695</c:v>
@@ -6071,37 +6071,37 @@
                   <c:v>44.45833969116211</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45.3220329284668</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43.2669563293457</c:v>
@@ -6110,97 +6110,97 @@
                   <c:v>42.48639297485352</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>52.47769927978516</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-30.45721817016602</c:v>
+                  <c:v>-30.45721244812012</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.432818293571472</c:v>
+                  <c:v>1.43281877040863</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>53.73037338256836</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>40.62762451171875</c:v>
+                  <c:v>40.62762832641602</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>41.38262557983398</c:v>
+                  <c:v>41.38261032104492</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>53.58465194702148</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>44.82205581665039</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>53.30300140380859</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>68.23286437988281</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>39.1981086730957</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42.77872467041016</c:v>
+                  <c:v>42.77871704101562</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>35.1326904296875</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>49.41484451293945</c:v>
+                  <c:v>49.41484832763672</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>50.66798400878906</c:v>
+                  <c:v>50.66798782348633</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>53.80855178833008</c:v>
@@ -6209,82 +6209,82 @@
                   <c:v>52.00135040283203</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42.53120040893555</c:v>
+                  <c:v>42.53120422363281</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>28.28287696838379</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.811311364173889</c:v>
+                  <c:v>1.811316251754761</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>20.96159362792969</c:v>
+                  <c:v>20.96159172058105</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>20.98185157775879</c:v>
+                  <c:v>20.98185348510742</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>26.57846260070801</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>55.03609848022461</c:v>
+                  <c:v>55.03609085083008</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>47.06322479248047</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>48.62266159057617</c:v>
+                  <c:v>48.62265396118164</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>48.16861724853516</c:v>
+                  <c:v>48.16861343383789</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.317270636558533</c:v>
+                  <c:v>-1.317273139953613</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>21.17401885986328</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>51.98925399780273</c:v>
+                  <c:v>51.9892463684082</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>43.07951354980469</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>51.56325912475586</c:v>
+                  <c:v>51.56324768066406</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>44.42626190185547</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>34.68169403076172</c:v>
+                  <c:v>34.68169784545898</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.666203498840332</c:v>
+                  <c:v>-0.6662040948867798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6979,7 +6979,7 @@
         <v>51.7318</v>
       </c>
       <c r="F2">
-        <v>61.83291244506836</v>
+        <v>61.83291625976562</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
       <c r="G4">
         <v>83</v>
@@ -7075,7 +7075,7 @@
         <v>42.1438</v>
       </c>
       <c r="F5">
-        <v>42.18092346191406</v>
+        <v>42.18091583251953</v>
       </c>
       <c r="G5">
         <v>83</v>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
       <c r="G7">
         <v>83</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>51.4297</v>
       </c>
       <c r="F12">
-        <v>42.47079849243164</v>
+        <v>42.47079467773438</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-2.96453857421875</v>
+        <v>-2.964543581008911</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-61.83600997924805</v>
+        <v>-61.83602142333984</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>41.5994</v>
       </c>
       <c r="F16">
-        <v>43.81402206420898</v>
+        <v>43.81401824951172</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>43.6125</v>
       </c>
       <c r="F19">
-        <v>45.12631607055664</v>
+        <v>45.12630462646484</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>37.4762</v>
       </c>
       <c r="F24">
-        <v>71.43074798583984</v>
+        <v>71.43074035644531</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>12.912672996521</v>
+        <v>12.91267395019531</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-3.184816360473633</v>
+        <v>-3.184815883636475</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>43.8987</v>
       </c>
       <c r="F30">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>43.2953</v>
       </c>
       <c r="F43">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-30.45721817016602</v>
+        <v>-30.45721244812012</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.432818293571472</v>
+        <v>1.43281877040863</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>45.5896</v>
       </c>
       <c r="F53">
-        <v>40.62762451171875</v>
+        <v>40.62762832641602</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>57.1504</v>
       </c>
       <c r="F54">
-        <v>41.38262557983398</v>
+        <v>41.38261032104492</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>50.5748</v>
       </c>
       <c r="F65">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>49.3915</v>
       </c>
       <c r="F69">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>46.1004</v>
       </c>
       <c r="F70">
-        <v>42.77872467041016</v>
+        <v>42.77871704101562</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>49.41484451293945</v>
+        <v>49.41484832763672</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>48.0588</v>
       </c>
       <c r="F73">
-        <v>50.66798400878906</v>
+        <v>50.66798782348633</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>43.1068</v>
       </c>
       <c r="F76">
-        <v>42.53120040893555</v>
+        <v>42.53120422363281</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>46.1463</v>
       </c>
       <c r="F79">
-        <v>1.811311364173889</v>
+        <v>1.811316251754761</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>20.96159362792969</v>
+        <v>20.96159172058105</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>20.98185157775879</v>
+        <v>20.98185348510742</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>55.7741</v>
       </c>
       <c r="F83">
-        <v>55.03609848022461</v>
+        <v>55.03609085083008</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>49.6522</v>
       </c>
       <c r="F87">
-        <v>48.62266159057617</v>
+        <v>48.62265396118164</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>35.4484</v>
       </c>
       <c r="F89">
-        <v>48.16861724853516</v>
+        <v>48.16861343383789</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-1.317270636558533</v>
+        <v>-1.317273139953613</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>51.98925399780273</v>
+        <v>51.9892463684082</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>51.56325912475586</v>
+        <v>51.56324768066406</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>38.2511</v>
       </c>
       <c r="F100">
-        <v>34.68169403076172</v>
+        <v>34.68169784545898</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>-0.666203498840332</v>
+        <v>-0.6662040948867798</v>
       </c>
     </row>
     <row r="102" spans="1:6">
